--- a/document/Dokumentasi.xlsx
+++ b/document/Dokumentasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Kode Table" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Kode</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Package</t>
+  </si>
+  <si>
+    <t>MST002</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>MST003</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>MST004</t>
+  </si>
+  <si>
+    <t>Valuta</t>
   </si>
 </sst>
 </file>
@@ -120,10 +138,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,16 +591,28 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
@@ -657,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/document/Dokumentasi.xlsx
+++ b/document/Dokumentasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="750" windowWidth="19815" windowHeight="7245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kode Table" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Kode</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Master user</t>
   </si>
   <si>
-    <t>TR001</t>
-  </si>
-  <si>
     <t>Visitor</t>
   </si>
   <si>
@@ -88,21 +85,12 @@
     <t>My Trip - Itenary</t>
   </si>
   <si>
-    <t>TR020</t>
-  </si>
-  <si>
     <t>Review</t>
   </si>
   <si>
-    <t>TR030</t>
-  </si>
-  <si>
     <t>Photo/video</t>
   </si>
   <si>
-    <t>TR040</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -122,6 +110,36 @@
   </si>
   <si>
     <t>Valuta</t>
+  </si>
+  <si>
+    <t>TR0010</t>
+  </si>
+  <si>
+    <t>TR0020</t>
+  </si>
+  <si>
+    <t>TR0030</t>
+  </si>
+  <si>
+    <t>TR0040</t>
+  </si>
+  <si>
+    <t>TR0050</t>
+  </si>
+  <si>
+    <t>TR0060</t>
+  </si>
+  <si>
+    <t>Ask Itenary</t>
+  </si>
+  <si>
+    <t>Message -inbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VST040 </t>
+  </si>
+  <si>
+    <t>Message - inbox</t>
   </si>
 </sst>
 </file>
@@ -522,10 +540,10 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -550,10 +568,10 @@
     </row>
     <row r="12" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -563,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -592,31 +610,27 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -646,39 +660,43 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,13 +705,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -705,39 +726,51 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
